--- a/scene_cat_exp_2023.2.2_english/input_files/53_scenecat_categorization_bedrooms_1.xlsx
+++ b/scene_cat_exp_2023.2.2_english/input_files/53_scenecat_categorization_bedrooms_1.xlsx
@@ -497,53 +497,53 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>stimuli/img_wz6x5.png</t>
+          <t>stimuli/img_bj2gr.png</t>
         </is>
       </c>
       <c r="M2">
-        <v>68.3695652173913</v>
+        <v>65.25</v>
       </c>
       <c r="N2">
-        <v>48.47826086956522</v>
+        <v>44.8</v>
       </c>
       <c r="O2">
-        <v>58.42391304347826</v>
+        <v>55.025</v>
       </c>
       <c r="P2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="Q2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -574,53 +574,53 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>stimuli/img_b971s.png</t>
+          <t>stimuli/img_gbypq.png</t>
         </is>
       </c>
       <c r="M3">
-        <v>70.5</v>
+        <v>76.27500000000001</v>
       </c>
       <c r="N3">
-        <v>47.61111111111111</v>
+        <v>51.925</v>
       </c>
       <c r="O3">
-        <v>59.05555555555556</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="P3">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Q3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V3">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -666,20 +666,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>stimuli/img_5p2ql.png</t>
+          <t>stimuli/img_3bxjb.png</t>
         </is>
       </c>
       <c r="M4">
-        <v>89.19565217391305</v>
+        <v>87.28571428571429</v>
       </c>
       <c r="N4">
-        <v>72.52173913043478</v>
+        <v>72.65714285714286</v>
       </c>
       <c r="O4">
-        <v>80.85869565217391</v>
+        <v>79.97142857142858</v>
       </c>
       <c r="P4">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="Q4">
         <v>10</v>
@@ -691,13 +691,13 @@
         <v>10</v>
       </c>
       <c r="T4">
+        <v>9</v>
+      </c>
+      <c r="U4">
+        <v>9</v>
+      </c>
+      <c r="V4">
         <v>10</v>
-      </c>
-      <c r="U4">
-        <v>10</v>
-      </c>
-      <c r="V4">
-        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -743,20 +743,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>stimuli/img_68wfw.png</t>
+          <t>stimuli/img_q1ynd.png</t>
         </is>
       </c>
       <c r="M5">
-        <v>68.87878787878788</v>
+        <v>70.05714285714286</v>
       </c>
       <c r="N5">
-        <v>48.96969696969697</v>
+        <v>47.31428571428572</v>
       </c>
       <c r="O5">
-        <v>58.92424242424242</v>
+        <v>58.68571428571429</v>
       </c>
       <c r="P5">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q5">
         <v>5</v>
@@ -805,7 +805,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -820,38 +820,38 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>stimuli/img_d0k76.png</t>
+          <t>stimuli/img_swq34.png</t>
         </is>
       </c>
       <c r="M6">
-        <v>67.09090909090909</v>
+        <v>64.11363636363636</v>
       </c>
       <c r="N6">
-        <v>46.3030303030303</v>
+        <v>43.04545454545455</v>
       </c>
       <c r="O6">
-        <v>56.6969696969697</v>
+        <v>53.57954545454545</v>
       </c>
       <c r="P6">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -897,38 +897,38 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>stimuli/img_ic3os.png</t>
+          <t>stimuli/img_2pnl2.png</t>
         </is>
       </c>
       <c r="M7">
-        <v>84.79069767441861</v>
+        <v>6.621621621621622</v>
       </c>
       <c r="N7">
-        <v>66.16279069767442</v>
+        <v>7.135135135135135</v>
       </c>
       <c r="O7">
-        <v>75.47674418604652</v>
+        <v>6.878378378378379</v>
       </c>
       <c r="P7">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="Q7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="R7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="S7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="T7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="U7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="V7">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1036,7 +1036,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1051,38 +1051,38 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>stimuli/img_53nbn.png</t>
+          <t>stimuli/img_g7870.png</t>
         </is>
       </c>
       <c r="M9">
-        <v>73.28888888888889</v>
+        <v>68.70967741935483</v>
       </c>
       <c r="N9">
-        <v>51.15555555555556</v>
+        <v>44.2258064516129</v>
       </c>
       <c r="O9">
-        <v>62.22222222222223</v>
+        <v>56.46774193548387</v>
       </c>
       <c r="P9">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="V9">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -1128,38 +1128,38 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>stimuli/img_2pk6v.png</t>
+          <t>stimuli/img_v8dra.png</t>
         </is>
       </c>
       <c r="M10">
-        <v>85.08108108108108</v>
+        <v>61.77272727272727</v>
       </c>
       <c r="N10">
-        <v>66.16216216216216</v>
+        <v>38.79545454545455</v>
       </c>
       <c r="O10">
-        <v>75.62162162162161</v>
+        <v>50.28409090909091</v>
       </c>
       <c r="P10">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="Q10">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="R10">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="S10">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="T10">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="U10">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="V10">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -1190,53 +1190,53 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>stimuli/img_9pfbj.png</t>
+          <t>stimuli/img_pt3d7.png</t>
         </is>
       </c>
       <c r="M11">
-        <v>91.27272727272727</v>
+        <v>65.08571428571429</v>
       </c>
       <c r="N11">
-        <v>80.09090909090909</v>
+        <v>44.65714285714286</v>
       </c>
       <c r="O11">
-        <v>85.68181818181819</v>
+        <v>54.87142857142857</v>
       </c>
       <c r="P11">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q11">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="R11">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="S11">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="T11">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="U11">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="V11">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -1267,53 +1267,53 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>stimuli/img_aweye.png</t>
+          <t>stimuli/img_68wfw.png</t>
         </is>
       </c>
       <c r="M12">
-        <v>53.42105263157895</v>
+        <v>68.87878787878788</v>
       </c>
       <c r="N12">
-        <v>31.84210526315789</v>
+        <v>48.96969696969697</v>
       </c>
       <c r="O12">
-        <v>42.63157894736842</v>
+        <v>58.92424242424242</v>
       </c>
       <c r="P12">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="Q12">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R12">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S12">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V12">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -1359,38 +1359,38 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>stimuli/img_bj2gr.png</t>
+          <t>stimuli/img_aweye.png</t>
         </is>
       </c>
       <c r="M13">
-        <v>65.25</v>
+        <v>53.42105263157895</v>
       </c>
       <c r="N13">
-        <v>44.8</v>
+        <v>31.84210526315789</v>
       </c>
       <c r="O13">
-        <v>55.025</v>
+        <v>42.63157894736842</v>
       </c>
       <c r="P13">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V13">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -1421,53 +1421,53 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>stimuli/img_hc49v.png</t>
+          <t>stimuli/img_5p2ql.png</t>
         </is>
       </c>
       <c r="M14">
-        <v>70.95121951219512</v>
+        <v>89.19565217391305</v>
       </c>
       <c r="N14">
-        <v>53.31707317073171</v>
+        <v>72.52173913043478</v>
       </c>
       <c r="O14">
-        <v>62.13414634146342</v>
+        <v>80.85869565217391</v>
       </c>
       <c r="P14">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="Q14">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="R14">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="S14">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="T14">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="U14">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="V14">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1513,38 +1513,38 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>stimuli/img_kost0.png</t>
+          <t>stimuli/img_hc49v.png</t>
         </is>
       </c>
       <c r="M15">
-        <v>63.09090909090909</v>
+        <v>70.95121951219512</v>
       </c>
       <c r="N15">
-        <v>42.77272727272727</v>
+        <v>53.31707317073171</v>
       </c>
       <c r="O15">
-        <v>52.93181818181819</v>
+        <v>62.13414634146342</v>
       </c>
       <c r="P15">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V15">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -1575,7 +1575,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1590,38 +1590,38 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>stimuli/img_lgxzn.png</t>
+          <t>stimuli/img_d0k76.png</t>
         </is>
       </c>
       <c r="M16">
-        <v>73.11363636363636</v>
+        <v>67.09090909090909</v>
       </c>
       <c r="N16">
-        <v>49.97727272727273</v>
+        <v>46.3030303030303</v>
       </c>
       <c r="O16">
-        <v>61.54545454545455</v>
+        <v>56.6969696969697</v>
       </c>
       <c r="P16">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R16">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S16">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T16">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U16">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="V16">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -1667,38 +1667,38 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>stimuli/img_3bxjb.png</t>
+          <t>stimuli/img_ose78.png</t>
         </is>
       </c>
       <c r="M17">
-        <v>87.28571428571429</v>
+        <v>80.19444444444444</v>
       </c>
       <c r="N17">
-        <v>72.65714285714286</v>
+        <v>60.25</v>
       </c>
       <c r="O17">
-        <v>79.97142857142858</v>
+        <v>70.22222222222223</v>
       </c>
       <c r="P17">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q17">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="R17">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="S17">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="T17">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="U17">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="V17">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -1744,38 +1744,38 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>stimuli/img_4ufga.png</t>
+          <t>stimuli/img_mucwi.png</t>
         </is>
       </c>
       <c r="M18">
-        <v>67.79411764705883</v>
+        <v>71.14814814814815</v>
       </c>
       <c r="N18">
-        <v>41.5</v>
+        <v>48.55555555555556</v>
       </c>
       <c r="O18">
-        <v>54.64705882352941</v>
+        <v>59.85185185185185</v>
       </c>
       <c r="P18">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="Q18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V18">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -1806,7 +1806,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1821,38 +1821,38 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>stimuli/img_swq34.png</t>
+          <t>stimuli/img_4ufga.png</t>
         </is>
       </c>
       <c r="M19">
-        <v>64.11363636363636</v>
+        <v>67.79411764705883</v>
       </c>
       <c r="N19">
-        <v>43.04545454545455</v>
+        <v>41.5</v>
       </c>
       <c r="O19">
-        <v>53.57954545454545</v>
+        <v>54.64705882352941</v>
       </c>
       <c r="P19">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="Q19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V19">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -1883,53 +1883,53 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>stimuli/img_q1ynd.png</t>
+          <t>stimuli/img_okvvw.png</t>
         </is>
       </c>
       <c r="M20">
-        <v>70.05714285714286</v>
+        <v>50.58333333333334</v>
       </c>
       <c r="N20">
-        <v>47.31428571428572</v>
+        <v>32.11111111111111</v>
       </c>
       <c r="O20">
-        <v>58.68571428571429</v>
+        <v>41.34722222222223</v>
       </c>
       <c r="P20">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V20">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -1975,38 +1975,38 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>stimuli/img_yteqw.png</t>
+          <t>stimuli/img_2pk6v.png</t>
         </is>
       </c>
       <c r="M21">
-        <v>66.83783783783784</v>
+        <v>85.08108108108108</v>
       </c>
       <c r="N21">
-        <v>43.78378378378378</v>
+        <v>66.16216216216216</v>
       </c>
       <c r="O21">
-        <v>55.31081081081081</v>
+        <v>75.62162162162161</v>
       </c>
       <c r="P21">
         <v>37</v>
       </c>
       <c r="Q21">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="R21">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="S21">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="T21">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="U21">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="V21">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -2037,53 +2037,53 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>stimuli/img_73pyk.png</t>
+          <t>stimuli/img_9pfbj.png</t>
         </is>
       </c>
       <c r="M22">
-        <v>69.27659574468085</v>
+        <v>91.27272727272727</v>
       </c>
       <c r="N22">
-        <v>47.27659574468085</v>
+        <v>80.09090909090909</v>
       </c>
       <c r="O22">
-        <v>58.27659574468085</v>
+        <v>85.68181818181819</v>
       </c>
       <c r="P22">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="Q22">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R22">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S22">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T22">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="U22">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="V22">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -2114,53 +2114,53 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>stimuli/img_t4hvr.png</t>
+          <t>stimuli/img_oau79.png</t>
         </is>
       </c>
       <c r="M23">
-        <v>61.69230769230769</v>
+        <v>70.86486486486487</v>
       </c>
       <c r="N23">
-        <v>39.76923076923077</v>
+        <v>49</v>
       </c>
       <c r="O23">
-        <v>50.73076923076923</v>
+        <v>59.93243243243244</v>
       </c>
       <c r="P23">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q23">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R23">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S23">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U23">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V23">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -2206,38 +2206,38 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>stimuli/img_anzgh.png</t>
+          <t>stimuli/img_cgdyc.png</t>
         </is>
       </c>
       <c r="M24">
-        <v>75.10526315789474</v>
+        <v>32.93023255813954</v>
       </c>
       <c r="N24">
-        <v>55.76315789473684</v>
+        <v>14.04651162790698</v>
       </c>
       <c r="O24">
-        <v>65.43421052631579</v>
+        <v>23.48837209302326</v>
       </c>
       <c r="P24">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="Q24">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R24">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S24">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T24">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="U24">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="V24">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -2268,53 +2268,53 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>stimuli/img_oau79.png</t>
+          <t>stimuli/img_anzgh.png</t>
         </is>
       </c>
       <c r="M25">
-        <v>70.86486486486487</v>
+        <v>75.10526315789474</v>
       </c>
       <c r="N25">
-        <v>49</v>
+        <v>55.76315789473684</v>
       </c>
       <c r="O25">
-        <v>59.93243243243244</v>
+        <v>65.43421052631579</v>
       </c>
       <c r="P25">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q25">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R25">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S25">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T25">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U25">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V25">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
@@ -2360,38 +2360,38 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>stimuli/img_v8dra.png</t>
+          <t>stimuli/img_z3yzz.png</t>
         </is>
       </c>
       <c r="M26">
-        <v>61.77272727272727</v>
+        <v>71.71052631578948</v>
       </c>
       <c r="N26">
-        <v>38.79545454545455</v>
+        <v>49.81578947368421</v>
       </c>
       <c r="O26">
-        <v>50.28409090909091</v>
+        <v>60.76315789473685</v>
       </c>
       <c r="P26">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="Q26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V26">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27">
@@ -2437,29 +2437,29 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>stimuli/img_xy930.png</t>
+          <t>stimuli/img_73pyk.png</t>
         </is>
       </c>
       <c r="M27">
-        <v>70.5952380952381</v>
+        <v>69.27659574468085</v>
       </c>
       <c r="N27">
-        <v>49.47619047619047</v>
+        <v>47.27659574468085</v>
       </c>
       <c r="O27">
-        <v>60.03571428571429</v>
+        <v>58.27659574468085</v>
       </c>
       <c r="P27">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="Q27">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R27">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S27">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T27">
         <v>5</v>
@@ -2499,53 +2499,53 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>stimuli/img_jivhq.png</t>
+          <t>stimuli/img_b971s.png</t>
         </is>
       </c>
       <c r="M28">
-        <v>37</v>
+        <v>70.5</v>
       </c>
       <c r="N28">
-        <v>22.26530612244898</v>
+        <v>47.61111111111111</v>
       </c>
       <c r="O28">
-        <v>29.63265306122449</v>
+        <v>59.05555555555556</v>
       </c>
       <c r="P28">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="Q28">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R28">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S28">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T28">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U28">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V28">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29">
@@ -2576,53 +2576,53 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>stimuli/img_gbypq.png</t>
+          <t>stimuli/img_kost0.png</t>
         </is>
       </c>
       <c r="M29">
-        <v>76.27500000000001</v>
+        <v>63.09090909090909</v>
       </c>
       <c r="N29">
-        <v>51.925</v>
+        <v>42.77272727272727</v>
       </c>
       <c r="O29">
-        <v>64.09999999999999</v>
+        <v>52.93181818181819</v>
       </c>
       <c r="P29">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="Q29">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R29">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S29">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T29">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U29">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V29">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
@@ -2653,53 +2653,53 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>stimuli/img_cgdyc.png</t>
+          <t>stimuli/img_koooi.png</t>
         </is>
       </c>
       <c r="M30">
-        <v>32.93023255813954</v>
+        <v>63.95454545454545</v>
       </c>
       <c r="N30">
-        <v>14.04651162790698</v>
+        <v>44.56818181818182</v>
       </c>
       <c r="O30">
-        <v>23.48837209302326</v>
+        <v>54.26136363636364</v>
       </c>
       <c r="P30">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q30">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R30">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S30">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T30">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U30">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V30">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31">
@@ -2730,35 +2730,35 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>stimuli/img_pt3d7.png</t>
+          <t>stimuli/img_yteqw.png</t>
         </is>
       </c>
       <c r="M31">
-        <v>65.08571428571429</v>
+        <v>66.83783783783784</v>
       </c>
       <c r="N31">
-        <v>44.65714285714286</v>
+        <v>43.78378378378378</v>
       </c>
       <c r="O31">
-        <v>54.87142857142857</v>
+        <v>55.31081081081081</v>
       </c>
       <c r="P31">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -2770,7 +2770,7 @@
         <v>4</v>
       </c>
       <c r="T31">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U31">
         <v>4</v>
@@ -2807,53 +2807,53 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>stimuli/img_mucwi.png</t>
+          <t>stimuli/img_ic3os.png</t>
         </is>
       </c>
       <c r="M32">
-        <v>71.14814814814815</v>
+        <v>84.79069767441861</v>
       </c>
       <c r="N32">
-        <v>48.55555555555556</v>
+        <v>66.16279069767442</v>
       </c>
       <c r="O32">
-        <v>59.85185185185185</v>
+        <v>75.47674418604652</v>
       </c>
       <c r="P32">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="Q32">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="R32">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="S32">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="T32">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="U32">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="V32">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33">
@@ -2884,53 +2884,53 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>stimuli/img_2pnl2.png</t>
+          <t>stimuli/img_anjr0.png</t>
         </is>
       </c>
       <c r="M33">
-        <v>6.621621621621622</v>
+        <v>67.88888888888889</v>
       </c>
       <c r="N33">
-        <v>7.135135135135135</v>
+        <v>45.80555555555556</v>
       </c>
       <c r="O33">
-        <v>6.878378378378379</v>
+        <v>56.84722222222222</v>
       </c>
       <c r="P33">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q33">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R33">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S33">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T33">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U33">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V33">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
@@ -2961,7 +2961,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2976,38 +2976,38 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>stimuli/img_anjr0.png</t>
+          <t>stimuli/img_53nbn.png</t>
         </is>
       </c>
       <c r="M34">
-        <v>67.88888888888889</v>
+        <v>73.28888888888889</v>
       </c>
       <c r="N34">
-        <v>45.80555555555556</v>
+        <v>51.15555555555556</v>
       </c>
       <c r="O34">
-        <v>56.84722222222222</v>
+        <v>62.22222222222223</v>
       </c>
       <c r="P34">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="Q34">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R34">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S34">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T34">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U34">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V34">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35">
@@ -3038,7 +3038,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -3053,38 +3053,38 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>stimuli/img_g7870.png</t>
+          <t>stimuli/img_lgxzn.png</t>
         </is>
       </c>
       <c r="M35">
-        <v>68.70967741935483</v>
+        <v>73.11363636363636</v>
       </c>
       <c r="N35">
-        <v>44.2258064516129</v>
+        <v>49.97727272727273</v>
       </c>
       <c r="O35">
-        <v>56.46774193548387</v>
+        <v>61.54545454545455</v>
       </c>
       <c r="P35">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="Q35">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R35">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S35">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T35">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U35">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V35">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36">
@@ -3130,38 +3130,38 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>stimuli/img_fqgem.png</t>
+          <t>stimuli/img_t4hvr.png</t>
         </is>
       </c>
       <c r="M36">
-        <v>80.75</v>
+        <v>61.69230769230769</v>
       </c>
       <c r="N36">
-        <v>61.475</v>
+        <v>39.76923076923077</v>
       </c>
       <c r="O36">
-        <v>71.1125</v>
+        <v>50.73076923076923</v>
       </c>
       <c r="P36">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q36">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="R36">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="S36">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="T36">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="U36">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="V36">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37">
@@ -3284,38 +3284,38 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>stimuli/img_ose78.png</t>
+          <t>stimuli/img_jivhq.png</t>
         </is>
       </c>
       <c r="M38">
-        <v>80.19444444444444</v>
+        <v>37</v>
       </c>
       <c r="N38">
-        <v>60.25</v>
+        <v>22.26530612244898</v>
       </c>
       <c r="O38">
-        <v>70.22222222222223</v>
+        <v>29.63265306122449</v>
       </c>
       <c r="P38">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="Q38">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="R38">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="S38">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="T38">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="U38">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="V38">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
@@ -3361,29 +3361,29 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>stimuli/img_koooi.png</t>
+          <t>stimuli/img_xy930.png</t>
         </is>
       </c>
       <c r="M39">
-        <v>63.95454545454545</v>
+        <v>70.5952380952381</v>
       </c>
       <c r="N39">
-        <v>44.56818181818182</v>
+        <v>49.47619047619047</v>
       </c>
       <c r="O39">
-        <v>54.26136363636364</v>
+        <v>60.03571428571429</v>
       </c>
       <c r="P39">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q39">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R39">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S39">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T39">
         <v>5</v>
@@ -3423,35 +3423,35 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>stimuli/img_z3yzz.png</t>
+          <t>stimuli/img_wz6x5.png</t>
         </is>
       </c>
       <c r="M40">
-        <v>71.71052631578948</v>
+        <v>68.3695652173913</v>
       </c>
       <c r="N40">
-        <v>49.81578947368421</v>
+        <v>48.47826086956522</v>
       </c>
       <c r="O40">
-        <v>60.76315789473685</v>
+        <v>58.42391304347826</v>
       </c>
       <c r="P40">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="Q40">
         <v>5</v>
@@ -3515,38 +3515,38 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>stimuli/img_okvvw.png</t>
+          <t>stimuli/img_fqgem.png</t>
         </is>
       </c>
       <c r="M41">
-        <v>50.58333333333334</v>
+        <v>80.75</v>
       </c>
       <c r="N41">
-        <v>32.11111111111111</v>
+        <v>61.475</v>
       </c>
       <c r="O41">
-        <v>41.34722222222223</v>
+        <v>71.1125</v>
       </c>
       <c r="P41">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Q41">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="R41">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="S41">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="T41">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="U41">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="V41">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
